--- a/model_feature_selection_with_times.xlsx
+++ b/model_feature_selection_with_times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FSS_metrics" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t xml:space="preserve">subreddit</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">selected_features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_set_accuracy</t>
   </si>
   <si>
     <t xml:space="preserve">test_set_auc</t>
@@ -275,18 +272,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -330,17 +321,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -352,66 +339,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -422,18 +349,14 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="69.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,10 +428,10 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="0" t="n">
         <v>0.781662959623284</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -523,10 +446,10 @@
       <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="0" t="n">
         <v>0.781494840196373</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -597,10 +520,10 @@
       <c r="D9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="0" t="n">
         <v>0.777406034801497</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -725,10 +648,10 @@
       <c r="D16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.81858957289056</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -871,10 +794,10 @@
       <c r="D24" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="0" t="n">
         <v>0.714616020547299</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -990,17 +913,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,9 +931,6 @@
       <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1022,10 +940,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.735519888346127</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.571211196211196</v>
+        <v>0.789547258297258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,10 +951,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.857268207078093</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.5</v>
+        <v>0.806135026371573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,10 +962,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.639226270805218</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.577791501976285</v>
+        <v>0.831020609824958</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,10 +973,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.673060245880732</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
+        <v>0.688733505182204</v>
       </c>
     </row>
   </sheetData>
